--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9F996-C06B-5541-86E0-E82051136B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3152878-E85D-754B-94DA-40BD24F44BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,61 +286,61 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>你叫老王，性格固执，有高血压和心脏病史，朋友少。你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，决定先发制人。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是业主小张，今年30岁，为人正派，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识好好跟工作人员理论一番。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是陈奶奶，今年70岁，常年独居一人，和邻居没有交流，也没有亲戚朋友。几年前你的独生女儿死于意外事故，因为女儿生前喜欢鸽子，所以你用养鸽子的方式纪念自己的女儿。但你违规搭建的鸽棚以及鸽子的粪便、鸟叫却招来了邻居们的投诉，居委会工作人员前几天找你协商拆除鸽棚，被你拒绝。之后你一想到这个事情和自己死去的女儿就觉得委屈，今天你更是委屈的落下眼泪，于是你来到居委会。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们不能欺负我一个老太婆啊，共产党应该为我们做主啊！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是小区业主周爷爷，今年70岁，独居老人，消息闭塞，与邻居往来较少，性格孤僻。你没读过书，是个文盲。去年经过居民的投票，小区物业费进行了上调，但你却没有注意相关的通知，也没有参加投票。今年你去交物业费的时候，发现费用比去年高了，你很生气，径直来到居委会大吵大闹。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫小苏，今年30岁，你和你丈夫都是企业白领，没有孩子，平时很少与居委会有交集。你是一个热爱网购的女生，但网购快递送货时家里经常没有人收货，你看到其他小区都引入了快递柜而你们小区没有，于是打电话到市民热线进行投诉。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>老王的母亲是90岁高龄老人，老人本人意识清楚，表示愿意打新冠疫苗，在居委会的联系下，社区医生上门为其接种了疫苗第一针。儿子老王知道后，来居委会闹事。
-您刚好作为工作人员接待我。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你叫老王，性格固执，有高血压和心脏病史，朋友少。你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>某商品房小区要实施垃圾分类，需要选址新建一个垃圾房，居委会选了几个地方，因为底楼居民的问题都被回绝了。居委会最终选了一个矛盾相对较少，而且底楼居民是楼组长，子女是体制内工作人员的进行说服。
-今天您作为居委工作人员，登门拜访，争取得到业主董阿姨的理解和配合。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，决定先发制人。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>某商品房小区因为历史遗留问题，地面停车位是固定的，随着住户的更换和车辆的增多，固定停车位引发了新入住居民的不满。一群居民纷纷聚集在居委会门口讨要说法。居民推选了一名律师业主作为负责人与居委会协商取消固定车位事宜。
-您刚好作为工作人员负责接待这位律师业主。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是业主小张，今年30岁，为人正派，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识好好跟工作人员理论一番。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>老公房顶楼有居民养鸽子，违规搭建了鸽棚，鸽子的粪便、鸟叫等声音严重扰民。邻居实在受不了，与鸽子主人私下调解无果，求助12345。居委会上门调解，鸽子主人提供了养鸽协会出具的证明，调解工作陷入僵局……没想到今天鸽子主人陈奶奶居然主动来到居委会哭诉此事。
-您刚好作为工作人员负责接待陈奶奶。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是陈奶奶，今年70岁，常年独居一人，和邻居没有交流，也没有亲戚朋友。几年前你的独生女儿死于意外事故，因为女儿生前喜欢鸽子，所以你用养鸽子的方式纪念自己的女儿。但你违规搭建的鸽棚以及鸽子的粪便、鸟叫却招来了邻居们的投诉，居委会工作人员前几天找你协商拆除鸽棚，被你拒绝。之后你一想到这个事情和自己死去的女儿就觉得委屈，今天你更是委屈的落下眼泪，于是你来到居委会。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们不能欺负我一个老太婆啊，共产党应该为我们做主啊！</t>
+接下来我来扮演老王，而您扮演接待我的工作人员。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>某商品房小区要实施垃圾分类，需要选址新建一个垃圾房，居委会选了几个地方，因为底楼居民的问题都被回绝了。业主董阿姨住在底楼居民且是楼组长，她的子女又是体制内工作人员，经过慎重考虑居委会决定尝试对董阿姨进行说服。
+接下来我来扮演董阿姨，而您扮演居委工作人员，登门拜访对我进行说服工作。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>某商品房小区因为历史遗留问题，地面停车位是固定的，随着住户的更换和车辆的增多，固定停车位引发了新入住居民的不满。一群居民纷纷聚集在居委会门口讨要说法。居民推选了律师业主小王作为负责人与居委会协商取消固定车位事宜。
+接下来我来扮演小王，而您扮演接待我的工作人员。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>老公房顶楼有居民养鸽子，违规搭建了鸽棚，鸽子的粪便、鸟叫等声音严重扰民。邻居实在受不了，与鸽子主人私下调解无果，求助12345。居委会上门调解，鸽子主人提供了养鸽协会出具的证明，调解工作陷入僵局。没想到今天鸽子主人陈奶奶居然主动来到居委会哭诉此事，原来她的女儿早年死于意外，女儿生前最喜欢鸽子，陈奶奶养鸽子正是出于对女儿的思念……
+接下来我来扮演陈奶奶，而您扮演接待我的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>某动迁小区物业费几十年未涨，在业委会的推动下，经过居民的民主投票，2021年度开始物业费上涨了25%，从原来的8毛涨到1块。2022年独居老人周爷爷交物业费的时候发现物业费比往年要高一点，从邻居口中得知物业费上涨了。周爷爷表示很气愤，为什么他事先不知情，找居委会理论。
-您刚好作为工作人员负责接待周爷爷。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是小区业主周爷爷，今年70岁，独居老人，消息闭塞，与邻居往来较少，性格孤僻。你没读过书，是个文盲。去年经过居民的投票，小区物业费进行了上调，但你却没有注意相关的通知，也没有参加投票。今年你去交物业费的时候，发现费用比去年高了，你很生气，径直来到居委会大吵大闹。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>某商品房小区，年轻人入住率较高，快递需求量较大，但是由于工作原因无法本人签收，家里又没有老人帮忙代收，年轻人小苏希望小区引进快递柜。但是由于小区没有业委会，没有人对接快递柜的引进工作。小苏致电12345求助。
-您刚好作为工作人员接听了求助电话。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你叫小苏，今年30岁，你和你丈夫都是企业白领，没有孩子，平时很少与居委会有交集。你是一个热爱网购的女生，但网购快递送货时家里经常没有人收货，你看到其他小区都引入了快递柜而你们小区没有，于是打电话到市民热线进行投诉。</t>
+接下来我来扮演周爷爷，而您扮演接待我的工作人员。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>某商品房小区，年轻人入住率较高，快递需求量较大，但是由于工作原因无法本人签收，家里又没有老人帮忙代收，年轻人小苏希望小区引进快递柜。但是由于小区没有业委会，没有人对接快递柜的引进工作。小苏因为平时很少与居委会打交道，所以选择直接致电12345求助。
+接下来我来扮演小苏，而您扮演接听我电话的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +744,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -803,10 +803,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
@@ -817,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -831,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -845,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
@@ -859,10 +859,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -873,10 +873,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3152878-E85D-754B-94DA-40BD24F44BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3972B2-0FCD-EE4E-887A-1447CF5A814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,31 +286,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>你叫老王，性格固执，有高血压和心脏病史，朋友少。你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，决定先发制人。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是业主小张，今年30岁，为人正派，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识好好跟工作人员理论一番。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是陈奶奶，今年70岁，常年独居一人，和邻居没有交流，也没有亲戚朋友。几年前你的独生女儿死于意外事故，因为女儿生前喜欢鸽子，所以你用养鸽子的方式纪念自己的女儿。但你违规搭建的鸽棚以及鸽子的粪便、鸟叫却招来了邻居们的投诉，居委会工作人员前几天找你协商拆除鸽棚，被你拒绝。之后你一想到这个事情和自己死去的女儿就觉得委屈，今天你更是委屈的落下眼泪，于是你来到居委会。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你们不能欺负我一个老太婆啊，共产党应该为我们做主啊！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是小区业主周爷爷，今年70岁，独居老人，消息闭塞，与邻居往来较少，性格孤僻。你没读过书，是个文盲。去年经过居民的投票，小区物业费进行了上调，但你却没有注意相关的通知，也没有参加投票。今年你去交物业费的时候，发现费用比去年高了，你很生气，径直来到居委会大吵大闹。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你叫小苏，今年30岁，你和你丈夫都是企业白领，没有孩子，平时很少与居委会有交集。你是一个热爱网购的女生，但网购快递送货时家里经常没有人收货，你看到其他小区都引入了快递柜而你们小区没有，于是打电话到市民热线进行投诉。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -334,13 +310,37 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>某动迁小区物业费几十年未涨，在业委会的推动下，经过居民的民主投票，2021年度开始物业费上涨了25%，从原来的8毛涨到1块。2022年独居老人周爷爷交物业费的时候发现物业费比往年要高一点，从邻居口中得知物业费上涨了。周爷爷表示很气愤，为什么他事先不知情，找居委会理论。
+    <t>你是陈奶奶，今年70岁，常年独居一人，和邻居没有交流，也没有亲戚朋友。几年前你的独生女儿死于意外事故，因为女儿生前喜欢鸽子，所以你用养鸽子的方式纪念自己的女儿。但你违规搭建的鸽棚以及鸽子的粪便、鸟叫却招来了邻居们的投诉，居委会工作人员前几天找你协商拆除鸽棚，被你拒绝。之后你一想到这个事情和自己死去的女儿就觉得委屈，今天你更是委屈的落下眼泪，于是你来到居委会找人倾诉。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>某商品房小区，年轻人入住率较高，快递需求量较大，但是由于工作原因无法本人签收，家里又没有老人帮忙代收，年轻人小苏希望小区引进快递柜。但是由于小区没有业委会，没有人对接快递柜的引进工作，小苏对此很不满意，于是致电12345投诉。
+接下来我来扮演小苏，而您扮演接听我电话的工作人员。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫小苏，今年30岁，你和你丈夫都是企业白领，没有孩子，平时很少与居委会有交集。最近你看到其他小区都引入了快递柜而你们小区没有，后来你得知原来是你们小区没有业委会，导致无人对接此事。你又去找居委会，居委会给出了业委会候选人名单，你强烈怀疑候选人的工作能力，认为他们也搞不定此事。你回到家后致电12345进行投诉。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>某动迁小区物业费几十年未涨，在业委会的推动下，经过居民的民主投票，2021年度开始物业费上涨了25%，从原来的8毛涨到1块。虽然物业费上涨已经普遍征得居民投票同意，且工作人员也挨家上门做了正式通知，但周爷爷在缴纳今年的物业费后依然以事先不知情为由找到居委会理论……
 接下来我来扮演周爷爷，而您扮演接待我的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>某商品房小区，年轻人入住率较高，快递需求量较大，但是由于工作原因无法本人签收，家里又没有老人帮忙代收，年轻人小苏希望小区引进快递柜。但是由于小区没有业委会，没有人对接快递柜的引进工作。小苏因为平时很少与居委会打交道，所以选择直接致电12345求助。
-接下来我来扮演小苏，而您扮演接听我电话的工作人员。</t>
+    <t>你是小区业主周爷爷，今年70岁，独居老人，性格孤僻。去年经过居民的投票，小区物业费进行了上调，你当时虽然没有参加投票，但确实知道此事，并且工作人员也进行过上门告知。但你对此依然十分不满意，于是在今年缴纳物业费后，径直来到居委会大吵大闹，你一口咬定物业费上涨你不知情，且事先没人告知你。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫老王，性格固执，你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法，你认为工作人员的每一句话都是骗你的。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，一定要让垃圾房建在离你家较远的地方。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是业主小张，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识跟工作人员理论一番，一定要让居委会马上取消固定车位。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -803,10 +803,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
@@ -817,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -831,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -845,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
@@ -859,10 +859,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -873,10 +873,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3972B2-0FCD-EE4E-887A-1447CF5A814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBAF37-1BC5-D048-992A-04F4EB89C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <t>业委会工作</t>
   </si>
   <si>
-    <t>居委会不作为啊，人家小区都有快递柜的，为什么就我们小区没有？临汾小区还是先进单位了，连个快递柜也没有，怎么服务我们年轻人啊？强烈呼吁安装快递柜！！！</t>
-  </si>
-  <si>
     <t>你叫王翠花，是个四十多岁的家庭妇女。你性格小气，跟邻居关系都很差。最近你们楼栋在商议加装电梯，住一楼的你很反对这件事，因为加装电梯需要更改你家的大门。今天居委会的人再次登门对你进行劝说，你认定他们是故意欺负你。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -314,15 +311,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>某商品房小区，年轻人入住率较高，快递需求量较大，但是由于工作原因无法本人签收，家里又没有老人帮忙代收，年轻人小苏希望小区引进快递柜。但是由于小区没有业委会，没有人对接快递柜的引进工作，小苏对此很不满意，于是致电12345投诉。
-接下来我来扮演小苏，而您扮演接听我电话的工作人员。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你叫小苏，今年30岁，你和你丈夫都是企业白领，没有孩子，平时很少与居委会有交集。最近你看到其他小区都引入了快递柜而你们小区没有，后来你得知原来是你们小区没有业委会，导致无人对接此事。你又去找居委会，居委会给出了业委会候选人名单，你强烈怀疑候选人的工作能力，认为他们也搞不定此事。你回到家后致电12345进行投诉。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>某动迁小区物业费几十年未涨，在业委会的推动下，经过居民的民主投票，2021年度开始物业费上涨了25%，从原来的8毛涨到1块。虽然物业费上涨已经普遍征得居民投票同意，且工作人员也挨家上门做了正式通知，但周爷爷在缴纳今年的物业费后依然以事先不知情为由找到居委会理论……
 接下来我来扮演周爷爷，而您扮演接待我的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -341,6 +329,19 @@
   </si>
   <si>
     <t>你是业主小张，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识跟工作人员理论一番，一定要让居委会马上取消固定车位。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这次选举暗箱操作，谁给你们的权力选周老师，他不符合条件，你们是只手遮天。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>某商品房小区正在进行业委会换届改选。业主徐阿姨提出小区建立二十多年来从未召开过业主大会，认为此次选举，居委会无视业主意见而完全包办，任命不符合要求的前业委会失职人员周老师继续做业委会候选人。徐阿姨对上述说辞其实并没有实际证据，之前因为拆违工作，她一直对居委会心怀不满，于是故意在选举投票现场公开对居委会发难。
+接下来我来扮演徐阿姨，而您扮演主持投票选举的工作人员。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是小区业主徐阿姨，今年68岁，国企退休职工，之前居委会强制拆除了你家的违章建筑，这让你很气愤，之后凡是居委会同意的你就反对。今天你们小区进行业委会换届改选投票，你注意到候选人中有前业委会成员周老师，你认定周老师之前有失职行为，且小区建立二十多年来从未召开过业主大会，你来到投票现场，大声向主持工作的居委工作人员发难，一定要让他下不来台！</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +745,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -775,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -789,10 +790,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -803,13 +804,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="129" customHeight="1">
@@ -817,10 +818,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -831,10 +832,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -845,13 +846,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
@@ -859,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -873,13 +874,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" customHeight="1">

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBAF37-1BC5-D048-992A-04F4EB89C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3972B2-0FCD-EE4E-887A-1447CF5A814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,6 +265,9 @@
     <t>业委会工作</t>
   </si>
   <si>
+    <t>居委会不作为啊，人家小区都有快递柜的，为什么就我们小区没有？临汾小区还是先进单位了，连个快递柜也没有，怎么服务我们年轻人啊？强烈呼吁安装快递柜！！！</t>
+  </si>
+  <si>
     <t>你叫王翠花，是个四十多岁的家庭妇女。你性格小气，跟邻居关系都很差。最近你们楼栋在商议加装电梯，住一楼的你很反对这件事，因为加装电梯需要更改你家的大门。今天居委会的人再次登门对你进行劝说，你认定他们是故意欺负你。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -311,6 +314,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>某商品房小区，年轻人入住率较高，快递需求量较大，但是由于工作原因无法本人签收，家里又没有老人帮忙代收，年轻人小苏希望小区引进快递柜。但是由于小区没有业委会，没有人对接快递柜的引进工作，小苏对此很不满意，于是致电12345投诉。
+接下来我来扮演小苏，而您扮演接听我电话的工作人员。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫小苏，今年30岁，你和你丈夫都是企业白领，没有孩子，平时很少与居委会有交集。最近你看到其他小区都引入了快递柜而你们小区没有，后来你得知原来是你们小区没有业委会，导致无人对接此事。你又去找居委会，居委会给出了业委会候选人名单，你强烈怀疑候选人的工作能力，认为他们也搞不定此事。你回到家后致电12345进行投诉。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>某动迁小区物业费几十年未涨，在业委会的推动下，经过居民的民主投票，2021年度开始物业费上涨了25%，从原来的8毛涨到1块。虽然物业费上涨已经普遍征得居民投票同意，且工作人员也挨家上门做了正式通知，但周爷爷在缴纳今年的物业费后依然以事先不知情为由找到居委会理论……
 接下来我来扮演周爷爷，而您扮演接待我的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -329,19 +341,6 @@
   </si>
   <si>
     <t>你是业主小张，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识跟工作人员理论一番，一定要让居委会马上取消固定车位。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们这次选举暗箱操作，谁给你们的权力选周老师，他不符合条件，你们是只手遮天。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>某商品房小区正在进行业委会换届改选。业主徐阿姨提出小区建立二十多年来从未召开过业主大会，认为此次选举，居委会无视业主意见而完全包办，任命不符合要求的前业委会失职人员周老师继续做业委会候选人。徐阿姨对上述说辞其实并没有实际证据，之前因为拆违工作，她一直对居委会心怀不满，于是故意在选举投票现场公开对居委会发难。
-接下来我来扮演徐阿姨，而您扮演主持投票选举的工作人员。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是小区业主徐阿姨，今年68岁，国企退休职工，之前居委会强制拆除了你家的违章建筑，这让你很气愤，之后凡是居委会同意的你就反对。今天你们小区进行业委会换届改选投票，你注意到候选人中有前业委会成员周老师，你认定周老师之前有失职行为，且小区建立二十多年来从未召开过业主大会，你来到投票现场，大声向主持工作的居委工作人员发难，一定要让他下不来台！</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +744,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -776,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -790,10 +789,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -804,13 +803,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="129" customHeight="1">
@@ -818,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -832,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -846,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
@@ -860,10 +859,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -874,13 +873,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" customHeight="1">

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBAF37-1BC5-D048-992A-04F4EB89C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E97C3-1D53-C640-88E2-495C0D777532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，一定要让垃圾房建在离你家较远的地方。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你是业主小张，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识跟工作人员理论一番，一定要让居委会马上取消固定车位。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -342,6 +338,10 @@
   </si>
   <si>
     <t>你是小区业主徐阿姨，今年68岁，国企退休职工，之前居委会强制拆除了你家的违章建筑，这让你很气愤，之后凡是居委会同意的你就反对。今天你们小区进行业委会换届改选投票，你注意到候选人中有前业委会成员周老师，你认定周老师之前有失职行为，且小区建立二十多年来从未召开过业主大会，你来到投票现场，大声向主持工作的居委工作人员发难，一定要让他下不来台！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，一定不能让垃圾房建在你家楼梯口。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -821,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -874,13 +874,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" customHeight="1">

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E97C3-1D53-C640-88E2-495C0D777532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D40AAA-EB25-834C-B811-896EC823A970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,9 +235,6 @@
     <t>加梯</t>
   </si>
   <si>
-    <t>怎么又是你们居委？你们收了其他人家的钱，故意来欺负我们家是吗？</t>
-  </si>
-  <si>
     <t>打疫苗</t>
   </si>
   <si>
@@ -259,14 +256,7 @@
     <t>物业费</t>
   </si>
   <si>
-    <t>我头晕了，物业服务没有的，物业费年年涨的，一年涨了几十块，钞票天下落下来的啊？我是农民退休，没有钱的。居委会应该多关心关心我独居老人困难老人啊！</t>
-  </si>
-  <si>
     <t>业委会工作</t>
-  </si>
-  <si>
-    <t>你叫王翠花，是个四十多岁的家庭妇女。你性格小气，跟邻居关系都很差。最近你们楼栋在商议加装电梯，住一楼的你很反对这件事，因为加装电梯需要更改你家的大门。今天居委会的人再次登门对你进行劝说，你认定他们是故意欺负你。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>我扮演一个四十多岁的家庭妇女，性格小气且跟邻居关系都很差。最近我们楼栋计划加装电梯，整栋楼的居民都很赞同，但住一楼的我坚决反对，因为加装电梯需要更改我家大门朝向。
@@ -279,14 +269,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>叫你们书记出来，要死人了你们知道伐！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们不能欺负我一个老太婆啊，共产党应该为我们做主啊！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>老王的母亲是90岁高龄老人，老人本人意识清楚，表示愿意打新冠疫苗，在居委会的联系下，社区医生上门为其接种了疫苗第一针。儿子老王知道后，来居委会闹事。
 接下来我来扮演老王，而您扮演接待我的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -307,10 +289,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>你是陈奶奶，今年70岁，常年独居一人，和邻居没有交流，也没有亲戚朋友。几年前你的独生女儿死于意外事故，因为女儿生前喜欢鸽子，所以你用养鸽子的方式纪念自己的女儿。但你违规搭建的鸽棚以及鸽子的粪便、鸟叫却招来了邻居们的投诉，居委会工作人员前几天找你协商拆除鸽棚，被你拒绝。之后你一想到这个事情和自己死去的女儿就觉得委屈，今天你更是委屈的落下眼泪，于是你来到居委会找人倾诉。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>某动迁小区物业费几十年未涨，在业委会的推动下，经过居民的民主投票，2021年度开始物业费上涨了25%，从原来的8毛涨到1块。虽然物业费上涨已经普遍征得居民投票同意，且工作人员也挨家上门做了正式通知，但周爷爷在缴纳今年的物业费后依然以事先不知情为由找到居委会理论……
 接下来我来扮演周爷爷，而您扮演接待我的工作人员。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -320,14 +298,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>你叫老王，性格固执，你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法，你认为工作人员的每一句话都是骗你的。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是业主小张，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网煽动居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识跟工作人员理论一番，一定要让居委会马上取消固定车位。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你们这次选举暗箱操作，谁给你们的权力选周老师，他不符合条件，你们是只手遮天。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -342,6 +312,83 @@
   </si>
   <si>
     <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，一定不能让垃圾房建在你家楼梯口。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么又是你们居委？你们收了电梯公司的钱，故意来欺负我们家是吗？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫你们书记出来，打疫苗打死人了！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们不能欺负我一个老太婆啊，我有信鸽协会证明，我是合法养鸽子。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是陈奶奶，今年70岁，常年独居一人，和邻居没有交流，也没有亲戚朋友。几年前你的独生女儿死于意外事故，因为女儿生前喜欢鸽子，所以你用养鸽子的方式纪念自己的女儿。但你违规搭建的鸽棚以及鸽子的粪便、鸟叫却招来了邻居们的投诉，居委会工作人员前几天找你协商拆除鸽棚，被你拒绝。之后你一想到这个事情和自己死去的女儿就觉得委屈，今天你更是委屈的落下眼泪，于是你来到居委会投诉。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费年年涨，钞票天下落下来的啊？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你是业主小张，是一名律师。你入住小区1年来，因为小区停车位紧张，你一直利用互联网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼓动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>居民给居委会施加压力，要求取消固定车位。在获得部分居民的联名支持后，今天你正式来到居委会，打算利用你的专业知识跟工作人员理论一番，一定要让居委会马上取消固定车位。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你叫王翠花，是个四十多岁的家庭妇女。你性格小气，跟邻居关系都很差。最近你们楼栋在商议加装电梯，住一楼的你很反对这件事，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为装了电梯会影响你家房价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。今天居委会的人再次登门对你进行劝说，而你打定主意，坚决不会同意此事。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是老王，性格固执，你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法，你认为工作人员的每一句话都是骗你的。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,6 +448,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +527,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -776,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -790,97 +855,97 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="129" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="139" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="123" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" customHeight="1">

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D40AAA-EB25-834C-B811-896EC823A970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3580A9F-265B-0042-B892-96AAC5D994D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,11 +259,6 @@
     <t>业委会工作</t>
   </si>
   <si>
-    <t>我扮演一个四十多岁的家庭妇女，性格小气且跟邻居关系都很差。最近我们楼栋计划加装电梯，整栋楼的居民都很赞同，但住一楼的我坚决反对，因为加装电梯需要更改我家大门朝向。
-今天您作为居委工作人员，再次来到我家对我进行劝说工作。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>我扮演一个蛮不讲理的小区居民，我们所在的小区因突发疫情需要暂时封闭，而我执意要外出与朋友聚会。
 我现在来到居委会，您刚好作为工作人员接待我。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -307,19 +302,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>你是小区业主徐阿姨，今年68岁，国企退休职工，之前居委会强制拆除了你家的违章建筑，这让你很气愤，之后凡是居委会同意的你就反对。今天你们小区进行业委会换届改选投票，你注意到候选人中有前业委会成员周老师，你认定周老师之前有失职行为，且小区建立二十多年来从未召开过业主大会，你来到投票现场，大声向主持工作的居委工作人员发难，一定要让他下不来台！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，一定不能让垃圾房建在你家楼梯口。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怎么又是你们居委？你们收了电梯公司的钱，故意来欺负我们家是吗？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫你们书记出来，打疫苗打死人了！</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -391,12 +378,60 @@
     <t>你是老王，性格固执，你的母亲今年90岁了，昨天社区医生上门为其接种了疫苗第一针，你听说疫苗会引发绝症，于是你来到居委会大吵大闹，一定要工作人员给个说法，你认为工作人员的每一句话都是骗你的。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>我扮演一个四十多岁的家庭妇女，性格小气且跟邻居关系都很差。最近我们楼栋计划加装电梯，整栋楼的居民都很赞同，但住一楼的我坚决反对，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF2F92"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为我担心加装电梯会影响我家房价。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+今天您作为居委工作人员，再次来到我家对我进行劝说工作。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>叫你们书记出来，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF2F92"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谁让你们随随便便给老人打疫苗的？！</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是小区业主徐阿姨，今年68岁，国企退休职工，之前居委会强制拆除了你家的违章建筑，这让你很气愤。今天你们小区进行业委会换届改选投票，候选人中居然还包含前业委会成员周老师，已经下台的业委会成员肯定有失职行为，怎么能够再次当选？并且小区成立20多年来也从未召开过业主大会，这肯定是主持投票选举的居委会工作人员暗箱操作！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,6 +498,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF2F92"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF2F92"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF2F92"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -501,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,12 +589,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2F92"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,7 +875,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -841,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -855,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" customHeight="1">
@@ -869,13 +934,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="129" customHeight="1">
@@ -883,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -897,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
@@ -911,13 +976,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
@@ -925,13 +990,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="123" customHeight="1">
@@ -939,13 +1004,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" customHeight="1">

--- a/tests/data/courses.xlsx
+++ b/tests/data/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/CommunityAssistant/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3580A9F-265B-0042-B892-96AAC5D994D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB81C86-AD37-4144-80E2-128E8A218535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,10 +299,6 @@
   <si>
     <t>某商品房小区正在进行业委会换届改选。业主徐阿姨提出小区建立二十多年来从未召开过业主大会，认为此次选举，居委会无视业主意见而完全包办，任命不符合要求的前业委会失职人员周老师继续做业委会候选人。徐阿姨对上述说辞其实并没有实际证据，之前因为拆违工作，她一直对居委会心怀不满，于是故意在选举投票现场公开对居委会发难。
 接下来我来扮演徐阿姨，而您扮演主持投票选举的工作人员。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家门口新建垃圾房，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意吃这个亏。今天居委工作人员登门对你进行劝说，但你态度强硬，一定不能让垃圾房建在你家楼梯口。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -424,6 +420,10 @@
   </si>
   <si>
     <t>你是小区业主徐阿姨，今年68岁，国企退休职工，之前居委会强制拆除了你家的违章建筑，这让你很气愤。今天你们小区进行业委会换届改选投票，候选人中居然还包含前业委会成员周老师，已经下台的业委会成员肯定有失职行为，怎么能够再次当选？并且小区成立20多年来也从未召开过业主大会，这肯定是主持投票选举的居委会工作人员暗箱操作！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是业主董阿姨，60岁，上海人，精明能干，不爱吃亏。最近你们小区要实施垃圾分类，居委会想在你家楼栋口新建垃圾房。今天居委工作人员登门对你进行劝说，你虽然是楼组长且子女都是体制内工作人员，但你依然不愿意，因为你家住在一楼，垃圾房建在楼栋口离你家最近。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="97" zoomScaleNormal="70" zoomScaleSheetLayoutView="97" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" customHeight="1">
@@ -937,10 +937,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="129" customHeight="1">
@@ -950,8 +950,8 @@
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -965,7 +965,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
@@ -979,10 +979,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="133" customHeight="1">
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="123" customHeight="1">
@@ -1007,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>23</v>
